--- a/employees.xlsx
+++ b/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Petrov</t>
-  </si>
-  <si>
-    <t>Petr</t>
-  </si>
-  <si>
-    <t>Petorovich</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -140,11 +128,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
     </xf>
@@ -163,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,38 +318,6 @@
         <v>6.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="n" s="5">
-        <v>35045.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>41974.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
